--- a/Hemagglutination_Macro_Results_Template.xlsx
+++ b/Hemagglutination_Macro_Results_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mac\Home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mac\Home\Documents\GitHub\hemagglutination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EB3024-BFF9-4E9A-B89C-5CF96B28DBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A5F748-9F24-449A-8924-FE58FBB255B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27940" yWindow="960" windowWidth="26060" windowHeight="13110" xr2:uid="{AACAC262-473D-4239-BD36-10E34CDDAE44}"/>
+    <workbookView xWindow="28020" yWindow="1630" windowWidth="26060" windowHeight="13110" xr2:uid="{AACAC262-473D-4239-BD36-10E34CDDAE44}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Data_12_Wells" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="16">
   <si>
     <t>Well</t>
   </si>
@@ -145,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,7 +154,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -311,7 +310,7 @@
             <c:numRef>
               <c:f>Summary_12_Wells!$B$2:$B$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -401,7 +400,7 @@
             <c:numRef>
               <c:f>Summary_12_Wells!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -491,7 +490,7 @@
             <c:numRef>
               <c:f>Summary_12_Wells!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -581,7 +580,7 @@
             <c:numRef>
               <c:f>Summary_12_Wells!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -671,7 +670,7 @@
             <c:numRef>
               <c:f>Summary_12_Wells!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -761,7 +760,7 @@
             <c:numRef>
               <c:f>Summary_12_Wells!$G$2:$G$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -853,7 +852,7 @@
             <c:numRef>
               <c:f>Summary_12_Wells!$H$2:$H$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -949,7 +948,7 @@
             <c:numRef>
               <c:f>Summary_12_Wells!$I$2:$I$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1028,7 +1027,7 @@
             <c:numRef>
               <c:f>Summary_12_Wells!$J$2:$J$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1107,7 +1106,7 @@
             <c:numRef>
               <c:f>Summary_12_Wells!$K$2:$K$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1268,7 +1267,6 @@
         <c:axId val="1848434111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="22"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2575,7 +2573,7 @@
             <c:numRef>
               <c:f>Summary_24_Wells!$J$2:$J$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2690,7 +2688,7 @@
             <c:numRef>
               <c:f>Summary_24_Wells!$K$2:$K$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2887,7 +2885,6 @@
         <c:axId val="1848434111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="22"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5081,9 +5078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D424328-1D77-4B89-98B5-D7CE7364BB6D}">
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5141,79 +5136,56 @@
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" s="1">
-        <f>Raw_Data_12_Wells!W2</f>
-        <v>0</v>
-      </c>
-      <c r="Y1" s="1">
-        <f>Raw_Data_12_Wells!W14</f>
-        <v>0</v>
-      </c>
-      <c r="Z1" s="1">
-        <f>Raw_Data_12_Wells!W26</f>
-        <v>0</v>
-      </c>
-      <c r="AA1" s="1">
-        <f>Raw_Data_12_Wells!W38</f>
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1">
-        <f>Raw_Data_12_Wells!W50</f>
-        <v>0</v>
-      </c>
-      <c r="AC1" s="1">
-        <f>Raw_Data_12_Wells!W62</f>
-        <v>0</v>
-      </c>
-      <c r="AD1" s="1">
-        <f>Raw_Data_12_Wells!W74</f>
-        <v>0</v>
-      </c>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <f>Raw_Data_12_Wells!C2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <f>Raw_Data_12_Wells!C14</f>
         <v>0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <f>Raw_Data_12_Wells!C26</f>
         <v>0</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <f>Raw_Data_12_Wells!C38</f>
         <v>0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <f>Raw_Data_12_Wells!C50</f>
         <v>0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="6">
         <f>Raw_Data_12_Wells!C62</f>
         <v>0</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="6">
         <f>Raw_Data_12_Wells!C74</f>
         <v>0</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="6">
         <f>Raw_Data_12_Wells!C86</f>
         <v>0</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="6">
         <f>ROUND(AVERAGE(I$2:I$13)-(STDEV(I$2:I$13)*2),2)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="6">
         <f>ROUND(AVERAGE(I$2:I$13)+(STDEV(I$2:I$13)*2),2)</f>
         <v>0</v>
       </c>
@@ -5222,43 +5194,43 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <f>Raw_Data_12_Wells!C3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <f>Raw_Data_12_Wells!C15</f>
         <v>0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <f>Raw_Data_12_Wells!C27</f>
         <v>0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <f>Raw_Data_12_Wells!C39</f>
         <v>0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <f>Raw_Data_12_Wells!C51</f>
         <v>0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="6">
         <f>Raw_Data_12_Wells!C63</f>
         <v>0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="6">
         <f>Raw_Data_12_Wells!C75</f>
         <v>0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="6">
         <f>Raw_Data_12_Wells!C87</f>
         <v>0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="6">
         <f t="shared" ref="J3:J13" si="0">ROUND(AVERAGE(I$2:I$13)-(STDEV(I$2:I$13)*2),2)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="6">
         <f t="shared" ref="K3:K13" si="1">ROUND(AVERAGE(I$2:I$13)+(STDEV(I$2:I$13)*2),2)</f>
         <v>0</v>
       </c>
@@ -5267,43 +5239,43 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <f>Raw_Data_12_Wells!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <f>Raw_Data_12_Wells!C16</f>
         <v>0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <f>Raw_Data_12_Wells!C28</f>
         <v>0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <f>Raw_Data_12_Wells!C40</f>
         <v>0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <f>Raw_Data_12_Wells!C52</f>
         <v>0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="6">
         <f>Raw_Data_12_Wells!C64</f>
         <v>0</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="6">
         <f>Raw_Data_12_Wells!C76</f>
         <v>0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="6">
         <f>Raw_Data_12_Wells!C88</f>
         <v>0</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5312,43 +5284,43 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <f>Raw_Data_12_Wells!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <f>Raw_Data_12_Wells!C17</f>
         <v>0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <f>Raw_Data_12_Wells!C29</f>
         <v>0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <f>Raw_Data_12_Wells!C41</f>
         <v>0</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <f>Raw_Data_12_Wells!C53</f>
         <v>0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="6">
         <f>Raw_Data_12_Wells!C65</f>
         <v>0</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="6">
         <f>Raw_Data_12_Wells!C77</f>
         <v>0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="6">
         <f>Raw_Data_12_Wells!C89</f>
         <v>0</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5357,43 +5329,43 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <f>Raw_Data_12_Wells!C6</f>
         <v>0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <f>Raw_Data_12_Wells!C18</f>
         <v>0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <f>Raw_Data_12_Wells!C30</f>
         <v>0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <f>Raw_Data_12_Wells!C42</f>
         <v>0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <f>Raw_Data_12_Wells!C54</f>
         <v>0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="6">
         <f>Raw_Data_12_Wells!C66</f>
         <v>0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="6">
         <f>Raw_Data_12_Wells!C78</f>
         <v>0</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="6">
         <f>Raw_Data_12_Wells!C90</f>
         <v>0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5402,43 +5374,43 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <f>Raw_Data_12_Wells!C7</f>
         <v>0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <f>Raw_Data_12_Wells!C19</f>
         <v>0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <f>Raw_Data_12_Wells!C31</f>
         <v>0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <f>Raw_Data_12_Wells!C43</f>
         <v>0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <f>Raw_Data_12_Wells!C55</f>
         <v>0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="6">
         <f>Raw_Data_12_Wells!C67</f>
         <v>0</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="6">
         <f>Raw_Data_12_Wells!C79</f>
         <v>0</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="6">
         <f>Raw_Data_12_Wells!C91</f>
         <v>0</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5447,43 +5419,43 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <f>Raw_Data_12_Wells!C8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <f>Raw_Data_12_Wells!C20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <f>Raw_Data_12_Wells!C32</f>
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <f>Raw_Data_12_Wells!C44</f>
         <v>0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <f>Raw_Data_12_Wells!C56</f>
         <v>0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="6">
         <f>Raw_Data_12_Wells!C68</f>
         <v>0</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="6">
         <f>Raw_Data_12_Wells!C80</f>
         <v>0</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="6">
         <f>Raw_Data_12_Wells!C92</f>
         <v>0</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5492,43 +5464,43 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <f>Raw_Data_12_Wells!C9</f>
         <v>0</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <f>Raw_Data_12_Wells!C21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <f>Raw_Data_12_Wells!C33</f>
         <v>0</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <f>Raw_Data_12_Wells!C45</f>
         <v>0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <f>Raw_Data_12_Wells!C57</f>
         <v>0</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="6">
         <f>Raw_Data_12_Wells!C69</f>
         <v>0</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="6">
         <f>Raw_Data_12_Wells!C81</f>
         <v>0</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="6">
         <f>Raw_Data_12_Wells!C93</f>
         <v>0</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5537,43 +5509,43 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <f>Raw_Data_12_Wells!C10</f>
         <v>0</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <f>Raw_Data_12_Wells!C22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <f>Raw_Data_12_Wells!C34</f>
         <v>0</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <f>Raw_Data_12_Wells!C46</f>
         <v>0</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <f>Raw_Data_12_Wells!C58</f>
         <v>0</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="6">
         <f>Raw_Data_12_Wells!C70</f>
         <v>0</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="6">
         <f>Raw_Data_12_Wells!C82</f>
         <v>0</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="6">
         <f>Raw_Data_12_Wells!C94</f>
         <v>0</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5582,43 +5554,43 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <f>Raw_Data_12_Wells!C11</f>
         <v>0</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <f>Raw_Data_12_Wells!C23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <f>Raw_Data_12_Wells!C35</f>
         <v>0</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <f>Raw_Data_12_Wells!C47</f>
         <v>0</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="6">
         <f>Raw_Data_12_Wells!C59</f>
         <v>0</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="6">
         <f>Raw_Data_12_Wells!C71</f>
         <v>0</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="6">
         <f>Raw_Data_12_Wells!C83</f>
         <v>0</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="6">
         <f>Raw_Data_12_Wells!C95</f>
         <v>0</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5627,43 +5599,43 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="6">
         <f>Raw_Data_12_Wells!C12</f>
         <v>0</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <f>Raw_Data_12_Wells!C24</f>
         <v>0</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="6">
         <f>Raw_Data_12_Wells!C36</f>
         <v>0</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <f>Raw_Data_12_Wells!C48</f>
         <v>0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="6">
         <f>Raw_Data_12_Wells!C60</f>
         <v>0</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="6">
         <f>Raw_Data_12_Wells!C72</f>
         <v>0</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="6">
         <f>Raw_Data_12_Wells!C84</f>
         <v>0</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="6">
         <f>Raw_Data_12_Wells!C96</f>
         <v>0</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5672,43 +5644,43 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="6">
         <f>Raw_Data_12_Wells!C13</f>
         <v>0</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <f>Raw_Data_12_Wells!C25</f>
         <v>0</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <f>Raw_Data_12_Wells!C37</f>
         <v>0</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="6">
         <f>Raw_Data_12_Wells!C49</f>
         <v>0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="6">
         <f>Raw_Data_12_Wells!C61</f>
         <v>0</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="6">
         <f>Raw_Data_12_Wells!C73</f>
         <v>0</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="6">
         <f>Raw_Data_12_Wells!C85</f>
         <v>0</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="6">
         <f>Raw_Data_12_Wells!C97</f>
         <v>0</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5717,7 +5689,7 @@
       <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5751,25 +5723,25 @@
       <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>1</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>1</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>1</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>1</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>1</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5777,25 +5749,25 @@
       <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>2</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>2</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>2</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>2</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>2</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>2</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5803,25 +5775,25 @@
       <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>4</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>4</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>4</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>4</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>4</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>4</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>4</v>
       </c>
     </row>
@@ -5829,25 +5801,25 @@
       <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>8</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>8</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>8</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>8</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>8</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>8</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>8</v>
       </c>
     </row>
@@ -5855,25 +5827,25 @@
       <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>16</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>16</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>16</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>16</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>16</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>16</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>16</v>
       </c>
     </row>
@@ -5881,25 +5853,25 @@
       <c r="A22" s="3">
         <v>6</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>32</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>32</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>32</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>32</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>32</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>32</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>32</v>
       </c>
     </row>
@@ -5907,25 +5879,25 @@
       <c r="A23" s="3">
         <v>7</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>64</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>64</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>64</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>64</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>64</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>64</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>64</v>
       </c>
     </row>
@@ -5933,25 +5905,25 @@
       <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>128</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>128</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>128</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>128</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>128</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>128</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>128</v>
       </c>
     </row>
@@ -5959,25 +5931,25 @@
       <c r="A25" s="3">
         <v>9</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>256</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>256</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>256</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>256</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>256</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>256</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>256</v>
       </c>
     </row>
@@ -5985,25 +5957,25 @@
       <c r="A26" s="3">
         <v>10</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>512</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>512</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>512</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>512</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>512</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>512</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>512</v>
       </c>
     </row>
@@ -6011,25 +5983,25 @@
       <c r="A27" s="3">
         <v>11</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>1024</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>1024</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>1024</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>1024</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>1024</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>1024</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>1024</v>
       </c>
     </row>
@@ -6037,25 +6009,25 @@
       <c r="A28" s="3">
         <v>12</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>2048</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>2048</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>2048</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>2048</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>2048</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>2048</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>2048</v>
       </c>
     </row>
@@ -7841,9 +7813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7FB4E4-53FF-4922-9367-F87ADBCEFE61}">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7905,43 +7875,43 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <f>Raw_Data_24_Wells!C2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <f>Raw_Data_24_Wells!C26</f>
         <v>0</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>Raw_Data_24_Wells!C50</f>
         <v>0</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <f>Raw_Data_24_Wells!C74</f>
         <v>0</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f>Raw_Data_24_Wells!C98</f>
         <v>0</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f>Raw_Data_24_Wells!C122</f>
         <v>0</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <f>Raw_Data_24_Wells!C146</f>
         <v>0</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <f>Raw_Data_24_Wells!C170</f>
         <v>0</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="6">
         <f>ROUND(AVERAGE(I$2:I$13)-(STDEV(I$2:I$13)*2),2)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="6">
         <f>ROUND(AVERAGE(I$2:I$13)+(STDEV(I$2:I$13)*2),2)</f>
         <v>0</v>
       </c>
@@ -7950,43 +7920,43 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <f>Raw_Data_24_Wells!C3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <f>Raw_Data_24_Wells!C27</f>
         <v>0</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <f>Raw_Data_24_Wells!C51</f>
         <v>0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f>Raw_Data_24_Wells!C75</f>
         <v>0</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f>Raw_Data_24_Wells!C99</f>
         <v>0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f>Raw_Data_24_Wells!C123</f>
         <v>0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <f>Raw_Data_24_Wells!C147</f>
         <v>0</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <f>Raw_Data_24_Wells!C171</f>
         <v>0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="6">
         <f t="shared" ref="J3:J13" si="0">ROUND(AVERAGE(I$2:I$13)-(STDEV(I$2:I$13)*2),2)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="6">
         <f t="shared" ref="K3:K13" si="1">ROUND(AVERAGE(I$2:I$13)+(STDEV(I$2:I$13)*2),2)</f>
         <v>0</v>
       </c>
@@ -7995,43 +7965,43 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <f>Raw_Data_24_Wells!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <f>Raw_Data_24_Wells!C28</f>
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f>Raw_Data_24_Wells!C52</f>
         <v>0</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f>Raw_Data_24_Wells!C76</f>
         <v>0</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>Raw_Data_24_Wells!C100</f>
         <v>0</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f>Raw_Data_24_Wells!C124</f>
         <v>0</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f>Raw_Data_24_Wells!C148</f>
         <v>0</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <f>Raw_Data_24_Wells!C172</f>
         <v>0</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8040,43 +8010,43 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <f>Raw_Data_24_Wells!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <f>Raw_Data_24_Wells!C29</f>
         <v>0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f>Raw_Data_24_Wells!C53</f>
         <v>0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <f>Raw_Data_24_Wells!C77</f>
         <v>0</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f>Raw_Data_24_Wells!C101</f>
         <v>0</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f>Raw_Data_24_Wells!C125</f>
         <v>0</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f>Raw_Data_24_Wells!C149</f>
         <v>0</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <f>Raw_Data_24_Wells!C173</f>
         <v>0</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8085,43 +8055,43 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <f>Raw_Data_24_Wells!C6</f>
         <v>0</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>Raw_Data_24_Wells!C30</f>
         <v>0</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f>Raw_Data_24_Wells!C54</f>
         <v>0</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <f>Raw_Data_24_Wells!C78</f>
         <v>0</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f>Raw_Data_24_Wells!C102</f>
         <v>0</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f>Raw_Data_24_Wells!C126</f>
         <v>0</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <f>Raw_Data_24_Wells!C150</f>
         <v>0</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <f>Raw_Data_24_Wells!C174</f>
         <v>0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8130,43 +8100,43 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <f>Raw_Data_24_Wells!C7</f>
         <v>0</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <f>Raw_Data_24_Wells!C31</f>
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f>Raw_Data_24_Wells!C55</f>
         <v>0</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f>Raw_Data_24_Wells!C79</f>
         <v>0</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f>Raw_Data_24_Wells!C103</f>
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f>Raw_Data_24_Wells!C127</f>
         <v>0</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f>Raw_Data_24_Wells!C151</f>
         <v>0</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f>Raw_Data_24_Wells!C175</f>
         <v>0</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8175,43 +8145,43 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <f>Raw_Data_24_Wells!C8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <f>Raw_Data_24_Wells!C32</f>
         <v>0</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f>Raw_Data_24_Wells!C56</f>
         <v>0</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <f>Raw_Data_24_Wells!C80</f>
         <v>0</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f>Raw_Data_24_Wells!C104</f>
         <v>0</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f>Raw_Data_24_Wells!C128</f>
         <v>0</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <f>Raw_Data_24_Wells!C152</f>
         <v>0</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <f>Raw_Data_24_Wells!C176</f>
         <v>0</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8220,43 +8190,43 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <f>Raw_Data_24_Wells!C9</f>
         <v>0</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <f>Raw_Data_24_Wells!C33</f>
         <v>0</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f>Raw_Data_24_Wells!C57</f>
         <v>0</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f>Raw_Data_24_Wells!C81</f>
         <v>0</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f>Raw_Data_24_Wells!C105</f>
         <v>0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f>Raw_Data_24_Wells!C129</f>
         <v>0</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <f>Raw_Data_24_Wells!C153</f>
         <v>0</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f>Raw_Data_24_Wells!C177</f>
         <v>0</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8265,43 +8235,43 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <f>Raw_Data_24_Wells!C10</f>
         <v>0</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <f>Raw_Data_24_Wells!C34</f>
         <v>0</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f>Raw_Data_24_Wells!C58</f>
         <v>0</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <f>Raw_Data_24_Wells!C82</f>
         <v>0</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f>Raw_Data_24_Wells!C106</f>
         <v>0</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <f>Raw_Data_24_Wells!C130</f>
         <v>0</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <f>Raw_Data_24_Wells!C154</f>
         <v>0</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <f>Raw_Data_24_Wells!C178</f>
         <v>0</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8310,43 +8280,43 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <f>Raw_Data_24_Wells!C11</f>
         <v>0</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <f>Raw_Data_24_Wells!C35</f>
         <v>0</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <f>Raw_Data_24_Wells!C59</f>
         <v>0</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <f>Raw_Data_24_Wells!C83</f>
         <v>0</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f>Raw_Data_24_Wells!C107</f>
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <f>Raw_Data_24_Wells!C131</f>
         <v>0</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <f>Raw_Data_24_Wells!C155</f>
         <v>0</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <f>Raw_Data_24_Wells!C179</f>
         <v>0</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8355,43 +8325,43 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <f>Raw_Data_24_Wells!C12</f>
         <v>0</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <f>Raw_Data_24_Wells!C36</f>
         <v>0</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f>Raw_Data_24_Wells!C60</f>
         <v>0</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f>Raw_Data_24_Wells!C84</f>
         <v>0</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f>Raw_Data_24_Wells!C108</f>
         <v>0</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <f>Raw_Data_24_Wells!C132</f>
         <v>0</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <f>Raw_Data_24_Wells!C156</f>
         <v>0</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <f>Raw_Data_24_Wells!C180</f>
         <v>0</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8400,43 +8370,43 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <f>Raw_Data_24_Wells!C13</f>
         <v>0</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <f>Raw_Data_24_Wells!C37</f>
         <v>0</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <f>Raw_Data_24_Wells!C61</f>
         <v>0</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <f>Raw_Data_24_Wells!C85</f>
         <v>0</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f>Raw_Data_24_Wells!C109</f>
         <v>0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <f>Raw_Data_24_Wells!C133</f>
         <v>0</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <f>Raw_Data_24_Wells!C157</f>
         <v>0</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <f>Raw_Data_24_Wells!C181</f>
         <v>0</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8445,43 +8415,43 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <f>Raw_Data_24_Wells!C14</f>
         <v>0</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f>Raw_Data_24_Wells!C38</f>
         <v>0</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f>Raw_Data_24_Wells!C62</f>
         <v>0</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f>Raw_Data_24_Wells!C86</f>
         <v>0</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f>Raw_Data_24_Wells!C110</f>
         <v>0</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <f>Raw_Data_24_Wells!C134</f>
         <v>0</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <f>Raw_Data_24_Wells!C158</f>
         <v>0</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <f>Raw_Data_24_Wells!C182</f>
         <v>0</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="6">
         <f t="shared" ref="J14:J25" si="2">ROUND(AVERAGE(I$2:I$13)-(STDEV(I$2:I$13)*2),2)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="6">
         <f t="shared" ref="K14:K25" si="3">ROUND(AVERAGE(I$2:I$13)+(STDEV(I$2:I$13)*2),2)</f>
         <v>0</v>
       </c>
@@ -8490,43 +8460,43 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <f>Raw_Data_24_Wells!C15</f>
         <v>0</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>Raw_Data_24_Wells!C39</f>
         <v>0</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <f>Raw_Data_24_Wells!C63</f>
         <v>0</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <f>Raw_Data_24_Wells!C87</f>
         <v>0</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <f>Raw_Data_24_Wells!C111</f>
         <v>0</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <f>Raw_Data_24_Wells!C135</f>
         <v>0</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <f>Raw_Data_24_Wells!C159</f>
         <v>0</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <f>Raw_Data_24_Wells!C183</f>
         <v>0</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8535,43 +8505,43 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <f>Raw_Data_24_Wells!C16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>Raw_Data_24_Wells!C40</f>
         <v>0</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <f>Raw_Data_24_Wells!C64</f>
         <v>0</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <f>Raw_Data_24_Wells!C88</f>
         <v>0</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <f>Raw_Data_24_Wells!C112</f>
         <v>0</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <f>Raw_Data_24_Wells!C136</f>
         <v>0</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <f>Raw_Data_24_Wells!C160</f>
         <v>0</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <f>Raw_Data_24_Wells!C184</f>
         <v>0</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8580,43 +8550,43 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <f>Raw_Data_24_Wells!C17</f>
         <v>0</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>Raw_Data_24_Wells!C41</f>
         <v>0</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <f>Raw_Data_24_Wells!C65</f>
         <v>0</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <f>Raw_Data_24_Wells!C89</f>
         <v>0</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <f>Raw_Data_24_Wells!C113</f>
         <v>0</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <f>Raw_Data_24_Wells!C137</f>
         <v>0</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <f>Raw_Data_24_Wells!C161</f>
         <v>0</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <f>Raw_Data_24_Wells!C185</f>
         <v>0</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8625,43 +8595,43 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <f>Raw_Data_24_Wells!C18</f>
         <v>0</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f>Raw_Data_24_Wells!C42</f>
         <v>0</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <f>Raw_Data_24_Wells!C66</f>
         <v>0</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <f>Raw_Data_24_Wells!C90</f>
         <v>0</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <f>Raw_Data_24_Wells!C114</f>
         <v>0</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <f>Raw_Data_24_Wells!C138</f>
         <v>0</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <f>Raw_Data_24_Wells!C162</f>
         <v>0</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <f>Raw_Data_24_Wells!C186</f>
         <v>0</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8670,43 +8640,43 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <f>Raw_Data_24_Wells!C19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>Raw_Data_24_Wells!C43</f>
         <v>0</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <f>Raw_Data_24_Wells!C67</f>
         <v>0</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <f>Raw_Data_24_Wells!C91</f>
         <v>0</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <f>Raw_Data_24_Wells!C115</f>
         <v>0</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <f>Raw_Data_24_Wells!C139</f>
         <v>0</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <f>Raw_Data_24_Wells!C163</f>
         <v>0</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <f>Raw_Data_24_Wells!C187</f>
         <v>0</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8715,43 +8685,43 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <f>Raw_Data_24_Wells!C20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f>Raw_Data_24_Wells!C44</f>
         <v>0</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <f>Raw_Data_24_Wells!C68</f>
         <v>0</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <f>Raw_Data_24_Wells!C92</f>
         <v>0</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <f>Raw_Data_24_Wells!C116</f>
         <v>0</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <f>Raw_Data_24_Wells!C140</f>
         <v>0</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <f>Raw_Data_24_Wells!C164</f>
         <v>0</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <f>Raw_Data_24_Wells!C188</f>
         <v>0</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8760,43 +8730,43 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <f>Raw_Data_24_Wells!C21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>Raw_Data_24_Wells!C45</f>
         <v>0</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <f>Raw_Data_24_Wells!C69</f>
         <v>0</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <f>Raw_Data_24_Wells!C93</f>
         <v>0</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <f>Raw_Data_24_Wells!C117</f>
         <v>0</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <f>Raw_Data_24_Wells!C141</f>
         <v>0</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <f>Raw_Data_24_Wells!C165</f>
         <v>0</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <f>Raw_Data_24_Wells!C189</f>
         <v>0</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8805,43 +8775,43 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <f>Raw_Data_24_Wells!C22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f>Raw_Data_24_Wells!C46</f>
         <v>0</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <f>Raw_Data_24_Wells!C70</f>
         <v>0</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <f>Raw_Data_24_Wells!C94</f>
         <v>0</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <f>Raw_Data_24_Wells!C118</f>
         <v>0</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <f>Raw_Data_24_Wells!C142</f>
         <v>0</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <f>Raw_Data_24_Wells!C166</f>
         <v>0</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <f>Raw_Data_24_Wells!C190</f>
         <v>0</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8850,43 +8820,43 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <f>Raw_Data_24_Wells!C23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>Raw_Data_24_Wells!C47</f>
         <v>0</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <f>Raw_Data_24_Wells!C71</f>
         <v>0</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <f>Raw_Data_24_Wells!C95</f>
         <v>0</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <f>Raw_Data_24_Wells!C119</f>
         <v>0</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <f>Raw_Data_24_Wells!C143</f>
         <v>0</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <f>Raw_Data_24_Wells!C167</f>
         <v>0</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <f>Raw_Data_24_Wells!C191</f>
         <v>0</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8895,43 +8865,43 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <f>Raw_Data_24_Wells!C24</f>
         <v>0</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <f>Raw_Data_24_Wells!C48</f>
         <v>0</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <f>Raw_Data_24_Wells!C72</f>
         <v>0</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <f>Raw_Data_24_Wells!C96</f>
         <v>0</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <f>Raw_Data_24_Wells!C120</f>
         <v>0</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <f>Raw_Data_24_Wells!C144</f>
         <v>0</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <f>Raw_Data_24_Wells!C168</f>
         <v>0</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <f>Raw_Data_24_Wells!C192</f>
         <v>0</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8940,43 +8910,43 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <f>Raw_Data_24_Wells!C25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <f>Raw_Data_24_Wells!C49</f>
         <v>0</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <f>Raw_Data_24_Wells!C73</f>
         <v>0</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <f>Raw_Data_24_Wells!C97</f>
         <v>0</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <f>Raw_Data_24_Wells!C121</f>
         <v>0</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <f>Raw_Data_24_Wells!C145</f>
         <v>0</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <f>Raw_Data_24_Wells!C169</f>
         <v>0</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <f>Raw_Data_24_Wells!C193</f>
         <v>0</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8985,7 +8955,7 @@
       <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9019,25 +8989,25 @@
       <c r="A29" s="3">
         <v>1</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>1</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>1</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>1</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>1</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>1</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>1</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>1</v>
       </c>
     </row>
@@ -9045,25 +9015,25 @@
       <c r="A30" s="3">
         <v>2</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>2</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>2</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>2</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>2</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>2</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>2</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <v>2</v>
       </c>
     </row>
@@ -9071,25 +9041,25 @@
       <c r="A31" s="3">
         <v>3</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>4</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>4</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>4</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>4</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>4</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>4</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <v>4</v>
       </c>
     </row>
@@ -9097,25 +9067,25 @@
       <c r="A32" s="3">
         <v>4</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>8</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>8</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>8</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>8</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>8</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <v>8</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>8</v>
       </c>
     </row>
@@ -9123,25 +9093,25 @@
       <c r="A33" s="3">
         <v>5</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>16</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>16</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>16</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>16</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>16</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <v>16</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <v>16</v>
       </c>
     </row>
@@ -9149,25 +9119,25 @@
       <c r="A34" s="3">
         <v>6</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>32</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>32</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>32</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>32</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>32</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <v>32</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <v>32</v>
       </c>
     </row>
@@ -9175,25 +9145,25 @@
       <c r="A35" s="3">
         <v>7</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>64</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>64</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>64</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>64</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>64</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <v>64</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <v>64</v>
       </c>
     </row>
@@ -9201,25 +9171,25 @@
       <c r="A36" s="3">
         <v>8</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>128</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>128</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>128</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>128</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>128</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <v>128</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <v>128</v>
       </c>
     </row>
@@ -9227,25 +9197,25 @@
       <c r="A37" s="3">
         <v>9</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>256</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>256</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>256</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>256</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>256</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <v>256</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <v>256</v>
       </c>
     </row>
@@ -9253,25 +9223,25 @@
       <c r="A38" s="3">
         <v>10</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>512</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>512</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>512</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>512</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>512</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <v>512</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <v>512</v>
       </c>
     </row>
@@ -9279,25 +9249,25 @@
       <c r="A39" s="3">
         <v>11</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>1024</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>1024</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>1024</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>1024</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>1024</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <v>1024</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="5">
         <v>1024</v>
       </c>
     </row>
@@ -9305,25 +9275,25 @@
       <c r="A40" s="3">
         <v>12</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>2048</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>2048</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>2048</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>2048</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>2048</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <v>2048</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="5">
         <v>2048</v>
       </c>
     </row>
@@ -9331,25 +9301,25 @@
       <c r="A41" s="3">
         <v>13</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>4096</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>4096</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>4096</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>4096</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>4096</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="5">
         <v>4096</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="5">
         <v>4096</v>
       </c>
     </row>
@@ -9357,25 +9327,25 @@
       <c r="A42" s="3">
         <v>14</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>8192</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>8192</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>8192</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>8192</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>8192</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <v>8192</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="5">
         <v>8192</v>
       </c>
     </row>
@@ -9383,25 +9353,25 @@
       <c r="A43" s="3">
         <v>15</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>16384</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>16384</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>16384</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>16384</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>16384</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="5">
         <v>16384</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="5">
         <v>16384</v>
       </c>
     </row>
@@ -9409,25 +9379,25 @@
       <c r="A44" s="3">
         <v>16</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>32768</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>32768</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>32768</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>32768</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>32768</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="5">
         <v>32768</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="5">
         <v>32768</v>
       </c>
     </row>
@@ -9435,25 +9405,25 @@
       <c r="A45" s="3">
         <v>17</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>65536</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>65536</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>65536</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>65536</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>65536</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="5">
         <v>65536</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="5">
         <v>65536</v>
       </c>
     </row>
@@ -9461,25 +9431,25 @@
       <c r="A46" s="3">
         <v>18</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <v>131072</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>131072</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>131072</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>131072</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>131072</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="5">
         <v>131072</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="5">
         <v>131072</v>
       </c>
     </row>
@@ -9487,25 +9457,25 @@
       <c r="A47" s="3">
         <v>19</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <v>262144</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>262144</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>262144</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>262144</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <v>262144</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="5">
         <v>262144</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="5">
         <v>262144</v>
       </c>
     </row>
@@ -9513,25 +9483,25 @@
       <c r="A48" s="3">
         <v>20</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <v>524288</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>524288</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>524288</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>524288</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>524288</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="5">
         <v>524288</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="5">
         <v>524288</v>
       </c>
     </row>
@@ -9539,25 +9509,25 @@
       <c r="A49" s="3">
         <v>21</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>1048576</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>1048576</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>1048576</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>1048576</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>1048576</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="5">
         <v>1048576</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="5">
         <v>1048576</v>
       </c>
     </row>
@@ -9565,25 +9535,25 @@
       <c r="A50" s="3">
         <v>22</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <v>2097152</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>2097152</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>2097152</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>2097152</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>2097152</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="5">
         <v>2097152</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="5">
         <v>2097152</v>
       </c>
     </row>
@@ -9591,25 +9561,25 @@
       <c r="A51" s="3">
         <v>23</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="5">
         <v>4194304</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>4194304</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>4194304</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>4194304</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <v>4194304</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="5">
         <v>4194304</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="5">
         <v>4194304</v>
       </c>
     </row>
@@ -9617,25 +9587,25 @@
       <c r="A52" s="3">
         <v>24</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>8388608</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>8388608</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>8388608</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>8388608</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>8388608</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="5">
         <v>8388608</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="5">
         <v>8388608</v>
       </c>
     </row>

--- a/Hemagglutination_Macro_Results_Template.xlsx
+++ b/Hemagglutination_Macro_Results_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mac\Home\Documents\GitHub\hemagglutination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A5F748-9F24-449A-8924-FE58FBB255B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABF13F9-79B2-4E46-927C-A867580863A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28020" yWindow="1630" windowWidth="26060" windowHeight="13110" xr2:uid="{AACAC262-473D-4239-BD36-10E34CDDAE44}"/>
+    <workbookView xWindow="27045" yWindow="795" windowWidth="25890" windowHeight="14640" xr2:uid="{AACAC262-473D-4239-BD36-10E34CDDAE44}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Data_12_Wells" sheetId="3" r:id="rId1"/>
@@ -65,12 +65,6 @@
     <t>S6</t>
   </si>
   <si>
-    <t>NEG - 2SD</t>
-  </si>
-  <si>
-    <t>NEG + 2SD</t>
-  </si>
-  <si>
     <t>Area</t>
   </si>
   <si>
@@ -87,6 +81,12 @@
   </si>
   <si>
     <t>HAU Table</t>
+  </si>
+  <si>
+    <t>NEG - 3SD</t>
+  </si>
+  <si>
+    <t>NEG + 3SD</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1005,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NEG - 2SD</c:v>
+                  <c:v>NEG - 3SD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1084,7 +1084,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NEG + 2SD</c:v>
+                  <c:v>NEG + 3SD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1412,6 +1412,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1419,7 +1420,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2551,7 +2551,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NEG - 2SD</c:v>
+                  <c:v>NEG - 3SD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2666,7 +2666,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NEG + 2SD</c:v>
+                  <c:v>NEG + 3SD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3030,6 +3030,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3037,7 +3038,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4567,506 +4567,794 @@
   <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="B92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="B94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="B96">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B97">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -5080,21 +5368,21 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="3" max="3" width="6.54296875" customWidth="1"/>
-    <col min="4" max="4" width="6.90625" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" customWidth="1"/>
-    <col min="8" max="8" width="6.6328125" customWidth="1"/>
-    <col min="9" max="9" width="6.81640625" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" customWidth="1"/>
-    <col min="11" max="11" width="9.90625" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" customWidth="1"/>
+    <col min="3" max="3" width="6.53125" customWidth="1"/>
+    <col min="4" max="4" width="6.9296875" customWidth="1"/>
+    <col min="5" max="5" width="7.19921875" customWidth="1"/>
+    <col min="6" max="6" width="6.73046875" customWidth="1"/>
+    <col min="7" max="7" width="6.796875" customWidth="1"/>
+    <col min="8" max="8" width="6.59765625" customWidth="1"/>
+    <col min="9" max="9" width="6.796875" customWidth="1"/>
+    <col min="10" max="10" width="9.53125" customWidth="1"/>
+    <col min="11" max="11" width="9.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5131,10 +5419,10 @@
         <v>Neg</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -5145,7 +5433,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5182,15 +5470,15 @@
         <v>0</v>
       </c>
       <c r="J2" s="6">
-        <f>ROUND(AVERAGE(I$2:I$13)-(STDEV(I$2:I$13)*2),2)</f>
+        <f>ROUND(AVERAGE(I$2:I$13)-(STDEV(I$2:I$13)*3),2)</f>
         <v>0</v>
       </c>
       <c r="K2" s="6">
-        <f>ROUND(AVERAGE(I$2:I$13)+(STDEV(I$2:I$13)*2),2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+        <f>ROUND(AVERAGE(I$2:I$13)+(STDEV(I$2:I$13)*3),2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5227,15 +5515,15 @@
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J13" si="0">ROUND(AVERAGE(I$2:I$13)-(STDEV(I$2:I$13)*2),2)</f>
+        <f t="shared" ref="J3:J13" si="0">ROUND(AVERAGE(I$2:I$13)-(STDEV(I$2:I$13)*3),2)</f>
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" ref="K3:K13" si="1">ROUND(AVERAGE(I$2:I$13)+(STDEV(I$2:I$13)*2),2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+        <f t="shared" ref="K3:K13" si="1">ROUND(AVERAGE(I$2:I$13)+(STDEV(I$2:I$13)*3),2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5280,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5325,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5370,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5415,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5460,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5505,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5550,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5595,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5640,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -5685,15 +5973,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -5719,7 +6007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -5745,7 +6033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -5771,7 +6059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -5797,7 +6085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -5823,7 +6111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>5</v>
       </c>
@@ -5849,7 +6137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>6</v>
       </c>
@@ -5875,7 +6163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>7</v>
       </c>
@@ -5901,7 +6189,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>8</v>
       </c>
@@ -5927,7 +6215,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>9</v>
       </c>
@@ -5953,7 +6241,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>10</v>
       </c>
@@ -5979,7 +6267,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>11</v>
       </c>
@@ -6005,7 +6293,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>12</v>
       </c>
@@ -6031,199 +6319,199 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" s="1"/>
     </row>
   </sheetData>
@@ -6246,29 +6534,29 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6276,7 +6564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6284,7 +6572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -6292,7 +6580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -6300,7 +6588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -6308,7 +6596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -6316,7 +6604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -6324,7 +6612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -6332,7 +6620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -6340,7 +6628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -6348,7 +6636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -6356,7 +6644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -6364,7 +6652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -6372,7 +6660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -6380,7 +6668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -6388,7 +6676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -6396,7 +6684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -6404,7 +6692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -6412,7 +6700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -6420,7 +6708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -6428,7 +6716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -6436,7 +6724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -6444,7 +6732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -6452,7 +6740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -6460,7 +6748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -6468,7 +6756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -6476,7 +6764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -6484,7 +6772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -6492,7 +6780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -6500,7 +6788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -6508,7 +6796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -6516,7 +6804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -6524,7 +6812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -6532,7 +6820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -6540,7 +6828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -6548,7 +6836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -6556,7 +6844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -6564,7 +6852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -6572,7 +6860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -6580,7 +6868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -6588,7 +6876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -6596,7 +6884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -6604,7 +6892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -6612,7 +6900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -6620,7 +6908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -6628,7 +6916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -6636,7 +6924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -6644,7 +6932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -6652,7 +6940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -6660,7 +6948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -6668,7 +6956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -6676,7 +6964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -6684,7 +6972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -6692,7 +6980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -6700,7 +6988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -6708,7 +6996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -6716,7 +7004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -6724,7 +7012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -6732,7 +7020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -6740,7 +7028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -6748,7 +7036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -6756,7 +7044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -6764,7 +7052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -6772,7 +7060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -6780,7 +7068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -6788,7 +7076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -6796,7 +7084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -6804,7 +7092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -6812,7 +7100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -6820,7 +7108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -6828,7 +7116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -6836,7 +7124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -6844,7 +7132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -6852,7 +7140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -6860,7 +7148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -6868,7 +7156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -6876,7 +7164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -6884,7 +7172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -6892,7 +7180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -6900,7 +7188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -6908,7 +7196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -6916,7 +7204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -6924,7 +7212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -6932,7 +7220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -6940,7 +7228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -6948,7 +7236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -6956,7 +7244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -6964,7 +7252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -6972,7 +7260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -6980,7 +7268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -6988,7 +7276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -6996,7 +7284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -7004,7 +7292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -7012,7 +7300,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -7020,7 +7308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -7028,7 +7316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -7036,7 +7324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -7044,7 +7332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -7052,7 +7340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -7060,7 +7348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -7068,7 +7356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -7076,7 +7364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -7084,7 +7372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -7092,7 +7380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -7100,7 +7388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -7108,7 +7396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -7116,7 +7404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -7124,7 +7412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -7132,7 +7420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -7140,7 +7428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -7148,7 +7436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -7156,7 +7444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -7164,7 +7452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -7172,7 +7460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -7180,7 +7468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -7188,7 +7476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -7196,7 +7484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -7204,7 +7492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -7212,7 +7500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -7220,7 +7508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -7228,7 +7516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -7236,7 +7524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -7244,7 +7532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -7252,7 +7540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -7260,7 +7548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -7268,7 +7556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -7276,7 +7564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -7284,7 +7572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -7292,7 +7580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -7300,7 +7588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -7308,7 +7596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -7316,7 +7604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -7324,7 +7612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -7332,7 +7620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -7340,7 +7628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -7348,7 +7636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -7356,7 +7644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -7364,7 +7652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -7372,7 +7660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -7380,7 +7668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -7388,7 +7676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -7396,7 +7684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -7404,7 +7692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -7412,7 +7700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -7420,7 +7708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -7428,7 +7716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -7436,7 +7724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -7444,7 +7732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -7452,7 +7740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -7460,7 +7748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -7468,7 +7756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -7476,7 +7764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -7484,7 +7772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -7492,7 +7780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -7500,7 +7788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -7508,7 +7796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -7516,7 +7804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -7524,7 +7812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -7532,7 +7820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -7540,7 +7828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -7548,7 +7836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -7556,7 +7844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -7564,7 +7852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -7572,7 +7860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -7580,7 +7868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -7588,7 +7876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -7596,7 +7884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -7604,7 +7892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -7612,193 +7900,193 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G170">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G171">
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G172">
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G173">
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G174">
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G175">
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G176">
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G177">
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G178">
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G179">
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G180">
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G181">
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G182">
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G183">
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G184">
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G185">
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G186">
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G187">
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G188">
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G189">
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G190">
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G191">
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G192">
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G193">
         <v>24</v>
@@ -7815,20 +8103,20 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" customWidth="1"/>
     <col min="3" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" customWidth="1"/>
-    <col min="6" max="6" width="8.36328125" customWidth="1"/>
-    <col min="7" max="7" width="7.81640625" customWidth="1"/>
+    <col min="5" max="5" width="7.796875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="6.81640625" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" customWidth="1"/>
-    <col min="11" max="11" width="9.90625" customWidth="1"/>
+    <col min="9" max="9" width="6.796875" customWidth="1"/>
+    <col min="10" max="10" width="9.53125" customWidth="1"/>
+    <col min="11" max="11" width="9.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7865,13 +8153,13 @@
         <v>Neg</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -7908,15 +8196,15 @@
         <v>0</v>
       </c>
       <c r="J2" s="6">
-        <f>ROUND(AVERAGE(I$2:I$13)-(STDEV(I$2:I$13)*2),2)</f>
+        <f>ROUND(AVERAGE(I$2:I$13)-(STDEV(I$2:I$13)*3),2)</f>
         <v>0</v>
       </c>
       <c r="K2" s="6">
-        <f>ROUND(AVERAGE(I$2:I$13)+(STDEV(I$2:I$13)*2),2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <f>ROUND(AVERAGE(I$2:I$13)+(STDEV(I$2:I$13)*3),2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -7953,15 +8241,15 @@
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J13" si="0">ROUND(AVERAGE(I$2:I$13)-(STDEV(I$2:I$13)*2),2)</f>
+        <f t="shared" ref="J3:J25" si="0">ROUND(AVERAGE(I$2:I$13)-(STDEV(I$2:I$13)*3),2)</f>
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" ref="K3:K13" si="1">ROUND(AVERAGE(I$2:I$13)+(STDEV(I$2:I$13)*2),2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" ref="K3:K25" si="1">ROUND(AVERAGE(I$2:I$13)+(STDEV(I$2:I$13)*3),2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -8006,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -8051,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -8096,7 +8384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -8141,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -8186,7 +8474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -8231,7 +8519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -8276,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -8321,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -8366,7 +8654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -8411,7 +8699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -8448,15 +8736,15 @@
         <v>0</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" ref="J14:J25" si="2">ROUND(AVERAGE(I$2:I$13)-(STDEV(I$2:I$13)*2),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" ref="K14:K25" si="3">ROUND(AVERAGE(I$2:I$13)+(STDEV(I$2:I$13)*2),2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -8493,15 +8781,15 @@
         <v>0</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -8538,15 +8826,15 @@
         <v>0</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -8583,15 +8871,15 @@
         <v>0</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -8628,15 +8916,15 @@
         <v>0</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -8673,15 +8961,15 @@
         <v>0</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -8718,15 +9006,15 @@
         <v>0</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -8763,15 +9051,15 @@
         <v>0</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -8808,15 +9096,15 @@
         <v>0</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -8853,15 +9141,15 @@
         <v>0</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -8898,15 +9186,15 @@
         <v>0</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -8943,23 +9231,23 @@
         <v>0</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -8985,7 +9273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -9011,7 +9299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -9037,7 +9325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>3</v>
       </c>
@@ -9063,7 +9351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -9089,7 +9377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>5</v>
       </c>
@@ -9115,7 +9403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>6</v>
       </c>
@@ -9141,7 +9429,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>7</v>
       </c>
@@ -9167,7 +9455,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>8</v>
       </c>
@@ -9193,7 +9481,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>9</v>
       </c>
@@ -9219,7 +9507,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>10</v>
       </c>
@@ -9245,7 +9533,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>11</v>
       </c>
@@ -9271,7 +9559,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>12</v>
       </c>
@@ -9297,7 +9585,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>13</v>
       </c>
@@ -9323,7 +9611,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>14</v>
       </c>
@@ -9349,7 +9637,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>15</v>
       </c>
@@ -9375,7 +9663,7 @@
         <v>16384</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>16</v>
       </c>
@@ -9401,7 +9689,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>17</v>
       </c>
@@ -9427,7 +9715,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>18</v>
       </c>
@@ -9453,7 +9741,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>19</v>
       </c>
@@ -9479,7 +9767,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>20</v>
       </c>
@@ -9505,7 +9793,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>21</v>
       </c>
@@ -9531,7 +9819,7 @@
         <v>1048576</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>22</v>
       </c>
@@ -9557,7 +9845,7 @@
         <v>2097152</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>23</v>
       </c>
@@ -9583,7 +9871,7 @@
         <v>4194304</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>24</v>
       </c>
@@ -9609,133 +9897,133 @@
         <v>8388608</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" s="1"/>
     </row>
   </sheetData>
